--- a/Teamwork.xlsx
+++ b/Teamwork.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caophuc/Code/ltkhdl/LTKHDL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26093B1B-67D2-D04F-B676-DB6DA6A05005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607922CE-3CC1-2048-BAEB-D51BE6498B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8900" yWindow="1440" windowWidth="22420" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6380" yWindow="1440" windowWidth="22420" windowHeight="14220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>STT</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Đặt câu hỏi 3 và 4, tiến hành phân tích dữ liệu và trả lời câu hỏi</t>
+  </si>
+  <si>
+    <t>Thêm tài liệu tham khảo</t>
   </si>
 </sst>
 </file>
@@ -118,7 +121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,6 +144,12 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -156,7 +165,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,11 +188,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +227,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -665,8 +693,8 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
-        <v>4</v>
+      <c r="A4" s="3">
+        <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>12</v>
@@ -686,8 +714,8 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
+      <c r="A5" s="6">
+        <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
@@ -788,8 +816,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
-        <v>8</v>
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>20</v>
@@ -807,24 +835,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="54" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="10">
         <v>44384</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="10">
         <v>44384</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="8">
+        <v>44385</v>
+      </c>
+      <c r="E12" s="8">
+        <v>44385</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Teamwork.xlsx
+++ b/Teamwork.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caophuc/Code/ltkhdl/LTKHDL/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF73331-F2BD-424F-A0EC-550C70C4E3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23000" windowHeight="14900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,110 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
-  <si>
-    <t xml:space="preserve">STT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên công việc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sinh viên thực hiện</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bắt đầu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàn thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kết quả thu được</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lựa chọn tập dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Văn Võ Quyền + Cao Văn Phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sau khi nghiên cứu và chọn lọc một số tập dữ liệu từ Kaggle như Melbourne Housing Market, Video Game Sales, Pokemon with Stats, Goodreads-books, nhóm quyết định chọn tập dữ liệu Melbourne Housing Market để thực hiện vì số thuộc tính vừa phải, phù hợp cho nhóm thực hiện</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tạo khung dàn bài cho file notebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phan Văn Võ Quyền</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàn thành các mục và upload lên github cùng với file dữ liệu MELBOURNE_HOUSE_PRICES_LESS.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực hiện bước khám phá dữ liệu lần đầu tiên</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trả lời các câu hỏi về việc thu thập dữ liệu, nguồn, license, cách thu thập, trả lời một số câu hỏi khám phá như kích thước tập dữ liệu, đếm dòng lặp, khám phá kiểu dữ liệu trong mỗi cột, khám phá kĩ càng về kiểu dữ liệu object</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực hiện khám phá dữ liệu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cao Văn Phúc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khám phá các cột dữ liệu dạng numeric và categorical, thực hiện tiền xử lí xen kẽ như drop các dòng lặp, chuyển cột dữ liệu date về dạng datetime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực hiện bước khám phá dữ liệu lần thứ hai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khám phá các cột dữ liệu dạng numeric và categorical, thực hiện tiền xử lí xen kẽ như drop các dòng lặp, chuyển cột dữ liệu date về dạng datetime, thêm một số nhận xét về giá trị ngoại lai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực hiện khám phá dữ liệu lần thứ 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khám phá kĩ hơn về cột Suburb và cột CouncilArea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thống nhất khám phá và tiền xử lí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thảo luận thống nhất về phần khám phá và tiền xử lí</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt câu hỏi và tiến hành trả lời</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt câu hỏi 1 và 2, tiến hành phân tích dữ liệu và trả lời câu hỏi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đặt câu hỏi 3 và 4, tiến hành phân tích dữ liệu và trả lời câu hỏi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tổng kết đồ án</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nêu lên những khó khăn, hữu ích trong quá trình làm đồ án, cũng như những điều còn chưa thực hiện được</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thêm tài liệu tham khảo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chỉnh sửa bài làm theo góp ý trên issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thêm title cho biểu đồ, chỉnh sửa lại code câu hỏi 3 theo đúng câu hỏi, chỉnh sửa lỗi chính tả</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Tên công việc</t>
+  </si>
+  <si>
+    <t>Sinh viên thực hiện</t>
+  </si>
+  <si>
+    <t>Bắt đầu</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Kết quả thu được</t>
+  </si>
+  <si>
+    <t>Lựa chọn tập dữ liệu</t>
+  </si>
+  <si>
+    <t>Phan Văn Võ Quyền + Cao Văn Phúc</t>
+  </si>
+  <si>
+    <t>Sau khi nghiên cứu và chọn lọc một số tập dữ liệu từ Kaggle như Melbourne Housing Market, Video Game Sales, Pokemon with Stats, Goodreads-books, nhóm quyết định chọn tập dữ liệu Melbourne Housing Market để thực hiện vì số thuộc tính vừa phải, phù hợp cho nhóm thực hiện</t>
+  </si>
+  <si>
+    <t>Tạo khung dàn bài cho file notebook</t>
+  </si>
+  <si>
+    <t>Phan Văn Võ Quyền</t>
+  </si>
+  <si>
+    <t>Hoàn thành các mục và upload lên github cùng với file dữ liệu MELBOURNE_HOUSE_PRICES_LESS.csv</t>
+  </si>
+  <si>
+    <t>Thực hiện bước khám phá dữ liệu lần đầu tiên</t>
+  </si>
+  <si>
+    <t>Trả lời các câu hỏi về việc thu thập dữ liệu, nguồn, license, cách thu thập, trả lời một số câu hỏi khám phá như kích thước tập dữ liệu, đếm dòng lặp, khám phá kiểu dữ liệu trong mỗi cột, khám phá kĩ càng về kiểu dữ liệu object</t>
+  </si>
+  <si>
+    <t>Thực hiện khám phá dữ liệu</t>
+  </si>
+  <si>
+    <t>Cao Văn Phúc</t>
+  </si>
+  <si>
+    <t>Khám phá các cột dữ liệu dạng numeric và categorical, thực hiện tiền xử lí xen kẽ như drop các dòng lặp, chuyển cột dữ liệu date về dạng datetime</t>
+  </si>
+  <si>
+    <t>Thực hiện bước khám phá dữ liệu lần thứ hai</t>
+  </si>
+  <si>
+    <t>Khám phá các cột dữ liệu dạng numeric và categorical, thực hiện tiền xử lí xen kẽ như drop các dòng lặp, chuyển cột dữ liệu date về dạng datetime, thêm một số nhận xét về giá trị ngoại lai</t>
+  </si>
+  <si>
+    <t>Thực hiện khám phá dữ liệu lần thứ 3</t>
+  </si>
+  <si>
+    <t>Khám phá kĩ hơn về cột Suburb và cột CouncilArea</t>
+  </si>
+  <si>
+    <t>Thống nhất khám phá và tiền xử lí</t>
+  </si>
+  <si>
+    <t>Thảo luận thống nhất về phần khám phá và tiền xử lí</t>
+  </si>
+  <si>
+    <t>Đặt câu hỏi và tiến hành trả lời</t>
+  </si>
+  <si>
+    <t>Đặt câu hỏi 1 và 2, tiến hành phân tích dữ liệu và trả lời câu hỏi</t>
+  </si>
+  <si>
+    <t>Đặt câu hỏi 3 và 4, tiến hành phân tích dữ liệu và trả lời câu hỏi</t>
+  </si>
+  <si>
+    <t>Tổng kết đồ án</t>
+  </si>
+  <si>
+    <t>Nêu lên những khó khăn, hữu ích trong quá trình làm đồ án, cũng như những điều còn chưa thực hiện được</t>
+  </si>
+  <si>
+    <t>Thêm tài liệu tham khảo</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa bài làm theo góp ý trên issues</t>
+  </si>
+  <si>
+    <t>Thêm title cho biểu đồ, chỉnh sửa lại code câu hỏi 3 theo đúng câu hỏi, chỉnh sửa lỗi chính tả</t>
+  </si>
+  <si>
+    <t>Thêm câu hỏi</t>
+  </si>
+  <si>
+    <t>Đặt câu hỏi 5, tiến hành phân tích dữ liệu và trả lời câu hỏi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\-mmm"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -132,22 +142,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="13"/>
       <color rgb="FF000000"/>
       <name val="Calibri Light"/>
@@ -177,107 +172,81 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -336,31 +305,339 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="14.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="57"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="36" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,8 +657,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="95.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:7" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -390,18 +667,18 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="4">
         <v>44372</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="4">
         <v>44377</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:7" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -410,10 +687,10 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>44378</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>44378</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -421,8 +698,8 @@
       </c>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="76.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -431,10 +708,10 @@
       <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="7">
         <v>44378</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="7">
         <v>44378</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -442,8 +719,8 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="60" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="n">
+    <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -452,10 +729,10 @@
       <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>44379</v>
       </c>
-      <c r="E5" s="7" t="n">
+      <c r="E5" s="7">
         <v>44381</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -463,8 +740,8 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -473,10 +750,10 @@
       <c r="C6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7" t="n">
+      <c r="D6" s="7">
         <v>44379</v>
       </c>
-      <c r="E6" s="7" t="n">
+      <c r="E6" s="7">
         <v>44379</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -484,8 +761,8 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="n">
+    <row r="7" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -494,18 +771,18 @@
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="4">
         <v>44380</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="4">
         <v>44381</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -514,18 +791,18 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="4">
         <v>44381</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="4">
         <v>44381</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="n">
+    <row r="9" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -534,18 +811,18 @@
       <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>44382</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>44383</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -554,18 +831,18 @@
       <c r="C10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="7" t="n">
+      <c r="D10" s="7">
         <v>44382</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>44383</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="n">
+    <row r="11" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -574,18 +851,18 @@
       <c r="C11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="10">
         <v>44384</v>
       </c>
-      <c r="E11" s="10" t="n">
+      <c r="E11" s="10">
         <v>44384</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="48.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -594,18 +871,18 @@
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>44385</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="7">
         <v>44385</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -614,24 +891,38 @@
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="n">
+      <c r="D13" s="7">
         <v>44388</v>
       </c>
-      <c r="E13" s="7" t="n">
+      <c r="E13" s="7">
         <v>44388</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
+        <v>44388</v>
+      </c>
+      <c r="E14" s="7">
+        <v>44388</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>